--- a/Bases_de_Dados_(2022-2023)/Venezuela Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Segunda División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -203,12 +203,57 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Venezuela Segunda División</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>Nueva Esparta</t>
+  </si>
+  <si>
+    <t>Academia Anzoátegui</t>
+  </si>
+  <si>
+    <t>Bolívar</t>
+  </si>
+  <si>
+    <t>Real Frontera</t>
+  </si>
+  <si>
+    <t>Atlético La Cruz</t>
+  </si>
+  <si>
+    <t>Dynamo Puerto La Cruz</t>
+  </si>
+  <si>
+    <t>Fundación AIFI</t>
+  </si>
+  <si>
+    <t>Ureña</t>
+  </si>
+  <si>
+    <t>['2', '48', '67', '82']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['18', '26', '70']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -261,11 +306,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK1"/>
+  <dimension ref="A1:BK5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,6 +803,770 @@
         <v>61</v>
       </c>
     </row>
+    <row r="2" spans="1:63">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5589139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44996.66666666666</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <v>8</v>
+      </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
+      <c r="U2">
+        <v>1.83</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>1.61</v>
+      </c>
+      <c r="X2">
+        <v>2.11</v>
+      </c>
+      <c r="Y2">
+        <v>4.2</v>
+      </c>
+      <c r="Z2">
+        <v>1.19</v>
+      </c>
+      <c r="AA2">
+        <v>10.5</v>
+      </c>
+      <c r="AB2">
+        <v>1.02</v>
+      </c>
+      <c r="AC2">
+        <v>2.65</v>
+      </c>
+      <c r="AD2">
+        <v>2.68</v>
+      </c>
+      <c r="AE2">
+        <v>2.52</v>
+      </c>
+      <c r="AF2">
+        <v>1.11</v>
+      </c>
+      <c r="AG2">
+        <v>6</v>
+      </c>
+      <c r="AH2">
+        <v>1.58</v>
+      </c>
+      <c r="AI2">
+        <v>2.2</v>
+      </c>
+      <c r="AJ2">
+        <v>2.59</v>
+      </c>
+      <c r="AK2">
+        <v>1.38</v>
+      </c>
+      <c r="AL2">
+        <v>2.21</v>
+      </c>
+      <c r="AM2">
+        <v>1.63</v>
+      </c>
+      <c r="AN2">
+        <v>1.46</v>
+      </c>
+      <c r="AO2">
+        <v>1.38</v>
+      </c>
+      <c r="AP2">
+        <v>1.36</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>3</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>8</v>
+      </c>
+      <c r="BG2">
+        <v>3</v>
+      </c>
+      <c r="BH2">
+        <v>2</v>
+      </c>
+      <c r="BI2">
+        <v>4</v>
+      </c>
+      <c r="BJ2">
+        <v>10</v>
+      </c>
+      <c r="BK2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5589141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44996.70833333334</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>8</v>
+      </c>
+      <c r="T3">
+        <v>1.8</v>
+      </c>
+      <c r="U3">
+        <v>2.4</v>
+      </c>
+      <c r="V3">
+        <v>8</v>
+      </c>
+      <c r="W3">
+        <v>1.33</v>
+      </c>
+      <c r="X3">
+        <v>3.04</v>
+      </c>
+      <c r="Y3">
+        <v>2.56</v>
+      </c>
+      <c r="Z3">
+        <v>1.45</v>
+      </c>
+      <c r="AA3">
+        <v>6</v>
+      </c>
+      <c r="AB3">
+        <v>1.1</v>
+      </c>
+      <c r="AC3">
+        <v>1.23</v>
+      </c>
+      <c r="AD3">
+        <v>5.1</v>
+      </c>
+      <c r="AE3">
+        <v>8</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>1.22</v>
+      </c>
+      <c r="AI3">
+        <v>3.65</v>
+      </c>
+      <c r="AJ3">
+        <v>1.77</v>
+      </c>
+      <c r="AK3">
+        <v>2.03</v>
+      </c>
+      <c r="AL3">
+        <v>2.09</v>
+      </c>
+      <c r="AM3">
+        <v>1.73</v>
+      </c>
+      <c r="AN3">
+        <v>1.03</v>
+      </c>
+      <c r="AO3">
+        <v>1.14</v>
+      </c>
+      <c r="AP3">
+        <v>3.05</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>6</v>
+      </c>
+      <c r="BG3">
+        <v>3</v>
+      </c>
+      <c r="BH3">
+        <v>7</v>
+      </c>
+      <c r="BI3">
+        <v>8</v>
+      </c>
+      <c r="BJ3">
+        <v>13</v>
+      </c>
+      <c r="BK3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>5589142</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44996.70833333334</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>2.88</v>
+      </c>
+      <c r="U4">
+        <v>2.05</v>
+      </c>
+      <c r="V4">
+        <v>3.75</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>2.15</v>
+      </c>
+      <c r="AD4">
+        <v>3.2</v>
+      </c>
+      <c r="AE4">
+        <v>3.3</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>2.2</v>
+      </c>
+      <c r="AK4">
+        <v>1.6</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>2</v>
+      </c>
+      <c r="BG4">
+        <v>4</v>
+      </c>
+      <c r="BH4">
+        <v>3</v>
+      </c>
+      <c r="BI4">
+        <v>1</v>
+      </c>
+      <c r="BJ4">
+        <v>5</v>
+      </c>
+      <c r="BK4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5589143</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44996.70833333334</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>8</v>
+      </c>
+      <c r="T5">
+        <v>2.88</v>
+      </c>
+      <c r="U5">
+        <v>1.91</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>1.54</v>
+      </c>
+      <c r="X5">
+        <v>2.24</v>
+      </c>
+      <c r="Y5">
+        <v>3.4</v>
+      </c>
+      <c r="Z5">
+        <v>1.27</v>
+      </c>
+      <c r="AA5">
+        <v>8.5</v>
+      </c>
+      <c r="AB5">
+        <v>1.05</v>
+      </c>
+      <c r="AC5">
+        <v>2.05</v>
+      </c>
+      <c r="AD5">
+        <v>2.78</v>
+      </c>
+      <c r="AE5">
+        <v>3.2</v>
+      </c>
+      <c r="AF5">
+        <v>1.09</v>
+      </c>
+      <c r="AG5">
+        <v>7</v>
+      </c>
+      <c r="AH5">
+        <v>1.48</v>
+      </c>
+      <c r="AI5">
+        <v>2.45</v>
+      </c>
+      <c r="AJ5">
+        <v>2.25</v>
+      </c>
+      <c r="AK5">
+        <v>1.5</v>
+      </c>
+      <c r="AL5">
+        <v>2.05</v>
+      </c>
+      <c r="AM5">
+        <v>1.66</v>
+      </c>
+      <c r="AN5">
+        <v>1.27</v>
+      </c>
+      <c r="AO5">
+        <v>1.34</v>
+      </c>
+      <c r="AP5">
+        <v>1.6</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>3</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>3</v>
+      </c>
+      <c r="BG5">
+        <v>6</v>
+      </c>
+      <c r="BH5">
+        <v>7</v>
+      </c>
+      <c r="BI5">
+        <v>4</v>
+      </c>
+      <c r="BJ5">
+        <v>10</v>
+      </c>
+      <c r="BK5">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Segunda División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -223,6 +223,18 @@
     <t>Real Frontera</t>
   </si>
   <si>
+    <t>Petare</t>
+  </si>
+  <si>
+    <t>Fundación Lara Deportiva</t>
+  </si>
+  <si>
+    <t>Titanes</t>
+  </si>
+  <si>
+    <t>Héroes de Falcón</t>
+  </si>
+  <si>
     <t>Atlético La Cruz</t>
   </si>
   <si>
@@ -235,6 +247,18 @@
     <t>Ureña</t>
   </si>
   <si>
+    <t>Marítimo</t>
+  </si>
+  <si>
+    <t>Trujillanos</t>
+  </si>
+  <si>
+    <t>Atlético El Vigía</t>
+  </si>
+  <si>
+    <t>Yaracuyanos</t>
+  </si>
+  <si>
     <t>['2', '48', '67', '82']</t>
   </si>
   <si>
@@ -242,6 +266,12 @@
   </si>
   <si>
     <t>['32']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['-1']</t>
   </si>
   <si>
     <t>['18', '26', '70']</t>
@@ -606,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK5"/>
+  <dimension ref="A1:BK9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -826,7 +856,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -847,10 +877,10 @@
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1017,7 +1047,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1038,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1208,7 +1238,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1229,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1399,7 +1429,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1420,10 +1450,10 @@
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1565,6 +1595,770 @@
       </c>
       <c r="BK5">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5589140</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44997.66666666666</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q6">
+        <v>-1</v>
+      </c>
+      <c r="R6">
+        <v>-1</v>
+      </c>
+      <c r="S6">
+        <v>-1</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>-1</v>
+      </c>
+      <c r="BG6">
+        <v>-1</v>
+      </c>
+      <c r="BH6">
+        <v>-1</v>
+      </c>
+      <c r="BI6">
+        <v>-1</v>
+      </c>
+      <c r="BJ6">
+        <v>-1</v>
+      </c>
+      <c r="BK6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5589144</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44997.6875</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <v>8</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>2.05</v>
+      </c>
+      <c r="V7">
+        <v>3.6</v>
+      </c>
+      <c r="W7">
+        <v>1.45</v>
+      </c>
+      <c r="X7">
+        <v>2.3</v>
+      </c>
+      <c r="Y7">
+        <v>3.09</v>
+      </c>
+      <c r="Z7">
+        <v>1.16</v>
+      </c>
+      <c r="AA7">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB7">
+        <v>1.04</v>
+      </c>
+      <c r="AC7">
+        <v>2.25</v>
+      </c>
+      <c r="AD7">
+        <v>3</v>
+      </c>
+      <c r="AE7">
+        <v>3</v>
+      </c>
+      <c r="AF7">
+        <v>1.07</v>
+      </c>
+      <c r="AG7">
+        <v>7</v>
+      </c>
+      <c r="AH7">
+        <v>1.38</v>
+      </c>
+      <c r="AI7">
+        <v>2.8</v>
+      </c>
+      <c r="AJ7">
+        <v>2.15</v>
+      </c>
+      <c r="AK7">
+        <v>1.67</v>
+      </c>
+      <c r="AL7">
+        <v>1.85</v>
+      </c>
+      <c r="AM7">
+        <v>1.85</v>
+      </c>
+      <c r="AN7">
+        <v>1.53</v>
+      </c>
+      <c r="AO7">
+        <v>1.36</v>
+      </c>
+      <c r="AP7">
+        <v>1.4</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>5</v>
+      </c>
+      <c r="BG7">
+        <v>3</v>
+      </c>
+      <c r="BH7">
+        <v>1</v>
+      </c>
+      <c r="BI7">
+        <v>8</v>
+      </c>
+      <c r="BJ7">
+        <v>6</v>
+      </c>
+      <c r="BK7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5589145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44997.6875</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8">
+        <v>-1</v>
+      </c>
+      <c r="R8">
+        <v>-1</v>
+      </c>
+      <c r="S8">
+        <v>-1</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>3</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>-1</v>
+      </c>
+      <c r="BG8">
+        <v>-1</v>
+      </c>
+      <c r="BH8">
+        <v>-1</v>
+      </c>
+      <c r="BI8">
+        <v>-1</v>
+      </c>
+      <c r="BJ8">
+        <v>-1</v>
+      </c>
+      <c r="BK8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5589146</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44997.70833333334</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9">
+        <v>-1</v>
+      </c>
+      <c r="R9">
+        <v>-1</v>
+      </c>
+      <c r="S9">
+        <v>-1</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>-1</v>
+      </c>
+      <c r="BG9">
+        <v>-1</v>
+      </c>
+      <c r="BH9">
+        <v>-1</v>
+      </c>
+      <c r="BI9">
+        <v>-1</v>
+      </c>
+      <c r="BJ9">
+        <v>-1</v>
+      </c>
+      <c r="BK9">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Segunda División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK9"/>
+  <dimension ref="A1:BK10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2378,6 +2378,209 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5642963</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Venezuela Segunda División</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45003.70833333334</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Trujillanos</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Héroes de Falcón</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Segunda División_2023.xlsx
@@ -250,10 +250,10 @@
     <t>Atlético El Vigía</t>
   </si>
   <si>
+    <t>Atlético La Cruz</t>
+  </si>
+  <si>
     <t>Dynamo Puerto La Cruz</t>
-  </si>
-  <si>
-    <t>Atlético La Cruz</t>
   </si>
   <si>
     <t>Marítimo</t>
@@ -883,7 +883,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1074,7 +1074,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>5640197</v>
+        <v>5640198</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
@@ -3366,55 +3366,55 @@
         <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O15" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Q15">
         <v>5</v>
       </c>
       <c r="R15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T15">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
         <v>2</v>
       </c>
       <c r="V15">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="W15">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -3429,25 +3429,25 @@
         <v>0</v>
       </c>
       <c r="AC15">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="AD15">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AE15">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="AF15">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>8.25</v>
+        <v>0</v>
       </c>
       <c r="AH15">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AI15">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
         <v>2.3</v>
@@ -3456,19 +3456,19 @@
         <v>1.6</v>
       </c>
       <c r="AL15">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AM15">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="AN15">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3516,22 +3516,22 @@
         <v>0</v>
       </c>
       <c r="BF15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BG15">
         <v>2</v>
       </c>
       <c r="BH15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BI15">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="BJ15">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="BK15">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:63">
@@ -3539,7 +3539,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>5640198</v>
+        <v>5640197</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
@@ -3557,55 +3557,55 @@
         <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="Q16">
         <v>5</v>
       </c>
       <c r="R16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="U16">
         <v>2</v>
       </c>
       <c r="V16">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -3620,25 +3620,25 @@
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="AD16">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AE16">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AJ16">
         <v>2.3</v>
@@ -3647,19 +3647,19 @@
         <v>1.6</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AQ16">
         <v>0</v>
@@ -3668,10 +3668,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3707,22 +3707,22 @@
         <v>0</v>
       </c>
       <c r="BF16">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BG16">
         <v>2</v>
       </c>
       <c r="BH16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BI16">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BJ16">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="BK16">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/Venezuela Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Segunda División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="96">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -663,7 +663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK17"/>
+  <dimension ref="A1:BK20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT4">
         <v>1</v>
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3095,10 +3095,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3914,6 +3914,579 @@
       </c>
       <c r="BK17">
         <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5672621</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45009.83333333334</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>2.6</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <v>4.33</v>
+      </c>
+      <c r="W18">
+        <v>1.47</v>
+      </c>
+      <c r="X18">
+        <v>2.5</v>
+      </c>
+      <c r="Y18">
+        <v>3.22</v>
+      </c>
+      <c r="Z18">
+        <v>1.3</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>1.87</v>
+      </c>
+      <c r="AD18">
+        <v>3.05</v>
+      </c>
+      <c r="AE18">
+        <v>3.5</v>
+      </c>
+      <c r="AF18">
+        <v>1.04</v>
+      </c>
+      <c r="AG18">
+        <v>7.75</v>
+      </c>
+      <c r="AH18">
+        <v>1.38</v>
+      </c>
+      <c r="AI18">
+        <v>2.71</v>
+      </c>
+      <c r="AJ18">
+        <v>2.23</v>
+      </c>
+      <c r="AK18">
+        <v>1.58</v>
+      </c>
+      <c r="AL18">
+        <v>2.05</v>
+      </c>
+      <c r="AM18">
+        <v>1.72</v>
+      </c>
+      <c r="AN18">
+        <v>1.26</v>
+      </c>
+      <c r="AO18">
+        <v>1.29</v>
+      </c>
+      <c r="AP18">
+        <v>1.77</v>
+      </c>
+      <c r="AQ18">
+        <v>3</v>
+      </c>
+      <c r="AR18">
+        <v>1</v>
+      </c>
+      <c r="AS18">
+        <v>2</v>
+      </c>
+      <c r="AT18">
+        <v>1</v>
+      </c>
+      <c r="AU18">
+        <v>1.48</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>1.48</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>9</v>
+      </c>
+      <c r="BG18">
+        <v>6</v>
+      </c>
+      <c r="BH18">
+        <v>12</v>
+      </c>
+      <c r="BI18">
+        <v>2</v>
+      </c>
+      <c r="BJ18">
+        <v>21</v>
+      </c>
+      <c r="BK18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5672667</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45010.70833333334</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>82</v>
+      </c>
+      <c r="P19" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q19">
+        <v>-1</v>
+      </c>
+      <c r="R19">
+        <v>-1</v>
+      </c>
+      <c r="S19">
+        <v>-1</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>1</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>2</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>1.39</v>
+      </c>
+      <c r="AW19">
+        <v>1.39</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>-1</v>
+      </c>
+      <c r="BG19">
+        <v>-1</v>
+      </c>
+      <c r="BH19">
+        <v>-1</v>
+      </c>
+      <c r="BI19">
+        <v>-1</v>
+      </c>
+      <c r="BJ19">
+        <v>-1</v>
+      </c>
+      <c r="BK19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5672620</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45010.70833333334</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q20">
+        <v>-1</v>
+      </c>
+      <c r="R20">
+        <v>-1</v>
+      </c>
+      <c r="S20">
+        <v>-1</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>1.95</v>
+      </c>
+      <c r="V20">
+        <v>3.75</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>2.2</v>
+      </c>
+      <c r="AD20">
+        <v>3</v>
+      </c>
+      <c r="AE20">
+        <v>3.2</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>1.53</v>
+      </c>
+      <c r="AI20">
+        <v>2.3</v>
+      </c>
+      <c r="AJ20">
+        <v>2.35</v>
+      </c>
+      <c r="AK20">
+        <v>1.57</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>1</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0.5</v>
+      </c>
+      <c r="AT20">
+        <v>1.5</v>
+      </c>
+      <c r="AU20">
+        <v>0.77</v>
+      </c>
+      <c r="AV20">
+        <v>0.99</v>
+      </c>
+      <c r="AW20">
+        <v>1.76</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>-1</v>
+      </c>
+      <c r="BG20">
+        <v>-1</v>
+      </c>
+      <c r="BH20">
+        <v>-1</v>
+      </c>
+      <c r="BI20">
+        <v>-1</v>
+      </c>
+      <c r="BJ20">
+        <v>-1</v>
+      </c>
+      <c r="BK20">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Segunda División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="99">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -289,12 +289,18 @@
     <t>['36']</t>
   </si>
   <si>
+    <t>['-1', '-1']</t>
+  </si>
+  <si>
+    <t>['6', '69']</t>
+  </si>
+  <si>
+    <t>['38', '39', '87']</t>
+  </si>
+  <si>
     <t>['18', '26', '70']</t>
   </si>
   <si>
-    <t>['-1', '-1']</t>
-  </si>
-  <si>
     <t>['53']</t>
   </si>
   <si>
@@ -302,6 +308,9 @@
   </si>
   <si>
     <t>['30', '9008']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
   </si>
 </sst>
 </file>
@@ -663,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK20"/>
+  <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -997,7 +1006,7 @@
         <v>3</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1185,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -1480,7 +1489,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1567,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT5">
         <v>3</v>
@@ -2331,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT9">
         <v>1</v>
@@ -2817,7 +2826,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q12">
         <v>-1</v>
@@ -2907,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="AT12">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3008,7 +3017,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3390,7 +3399,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3671,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="AT16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3772,7 +3781,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4112,7 +4121,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>5672667</v>
+        <v>5672669</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
@@ -4121,16 +4130,16 @@
         <v>64</v>
       </c>
       <c r="E19" s="2">
-        <v>45010.70833333334</v>
+        <v>45010.6875</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -4142,37 +4151,37 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O19" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="P19" t="s">
         <v>85</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R19">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S19">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -4193,109 +4202,109 @@
         <v>0</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>6</v>
+      </c>
+      <c r="BG19">
+        <v>3</v>
+      </c>
+      <c r="BH19">
+        <v>6</v>
+      </c>
+      <c r="BI19">
         <v>2</v>
       </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
-        <v>1.39</v>
-      </c>
-      <c r="AW19">
-        <v>1.39</v>
-      </c>
-      <c r="AX19">
-        <v>0</v>
-      </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
-      <c r="AZ19">
-        <v>0</v>
-      </c>
-      <c r="BA19">
-        <v>0</v>
-      </c>
-      <c r="BB19">
-        <v>0</v>
-      </c>
-      <c r="BC19">
-        <v>0</v>
-      </c>
-      <c r="BD19">
-        <v>0</v>
-      </c>
-      <c r="BE19">
-        <v>0</v>
-      </c>
-      <c r="BF19">
-        <v>-1</v>
-      </c>
-      <c r="BG19">
-        <v>-1</v>
-      </c>
-      <c r="BH19">
-        <v>-1</v>
-      </c>
-      <c r="BI19">
-        <v>-1</v>
-      </c>
       <c r="BJ19">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BK19">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:63">
@@ -4303,7 +4312,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>5672620</v>
+        <v>5672667</v>
       </c>
       <c r="C20" t="s">
         <v>63</v>
@@ -4318,10 +4327,10 @@
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4357,136 +4366,1091 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>1</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>2</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>1.39</v>
+      </c>
+      <c r="AW20">
+        <v>1.39</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>-1</v>
+      </c>
+      <c r="BG20">
+        <v>-1</v>
+      </c>
+      <c r="BH20">
+        <v>-1</v>
+      </c>
+      <c r="BI20">
+        <v>-1</v>
+      </c>
+      <c r="BJ20">
+        <v>-1</v>
+      </c>
+      <c r="BK20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>5672620</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45010.70833333334</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>82</v>
+      </c>
+      <c r="P21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q21">
+        <v>-1</v>
+      </c>
+      <c r="R21">
+        <v>-1</v>
+      </c>
+      <c r="S21">
+        <v>-1</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="U21">
         <v>1.95</v>
       </c>
-      <c r="V20">
+      <c r="V21">
         <v>3.75</v>
       </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
         <v>2.2</v>
       </c>
-      <c r="AD20">
-        <v>3</v>
-      </c>
-      <c r="AE20">
+      <c r="AD21">
+        <v>3</v>
+      </c>
+      <c r="AE21">
         <v>3.2</v>
       </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
         <v>1.53</v>
       </c>
-      <c r="AI20">
+      <c r="AI21">
         <v>2.3</v>
       </c>
-      <c r="AJ20">
+      <c r="AJ21">
         <v>2.35</v>
       </c>
-      <c r="AK20">
+      <c r="AK21">
         <v>1.57</v>
       </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>1</v>
-      </c>
-      <c r="AR20">
-        <v>0</v>
-      </c>
-      <c r="AS20">
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>1</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
         <v>0.5</v>
       </c>
-      <c r="AT20">
+      <c r="AT21">
         <v>1.5</v>
       </c>
-      <c r="AU20">
+      <c r="AU21">
         <v>0.77</v>
       </c>
-      <c r="AV20">
+      <c r="AV21">
         <v>0.99</v>
       </c>
-      <c r="AW20">
+      <c r="AW21">
         <v>1.76</v>
       </c>
-      <c r="AX20">
-        <v>0</v>
-      </c>
-      <c r="AY20">
-        <v>0</v>
-      </c>
-      <c r="AZ20">
-        <v>0</v>
-      </c>
-      <c r="BA20">
-        <v>0</v>
-      </c>
-      <c r="BB20">
-        <v>0</v>
-      </c>
-      <c r="BC20">
-        <v>0</v>
-      </c>
-      <c r="BD20">
-        <v>0</v>
-      </c>
-      <c r="BE20">
-        <v>0</v>
-      </c>
-      <c r="BF20">
-        <v>-1</v>
-      </c>
-      <c r="BG20">
-        <v>-1</v>
-      </c>
-      <c r="BH20">
-        <v>-1</v>
-      </c>
-      <c r="BI20">
-        <v>-1</v>
-      </c>
-      <c r="BJ20">
-        <v>-1</v>
-      </c>
-      <c r="BK20">
-        <v>-1</v>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>-1</v>
+      </c>
+      <c r="BG21">
+        <v>-1</v>
+      </c>
+      <c r="BH21">
+        <v>-1</v>
+      </c>
+      <c r="BI21">
+        <v>-1</v>
+      </c>
+      <c r="BJ21">
+        <v>-1</v>
+      </c>
+      <c r="BK21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>5672619</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45011.6875</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22" t="s">
+        <v>85</v>
+      </c>
+      <c r="P22" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q22">
+        <v>-1</v>
+      </c>
+      <c r="R22">
+        <v>-1</v>
+      </c>
+      <c r="S22">
+        <v>-1</v>
+      </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
+        <v>2.5</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>4.2</v>
+      </c>
+      <c r="AD22">
+        <v>3.3</v>
+      </c>
+      <c r="AE22">
+        <v>1.75</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>2.35</v>
+      </c>
+      <c r="AK22">
+        <v>1.57</v>
+      </c>
+      <c r="AL22">
+        <v>2.07</v>
+      </c>
+      <c r="AM22">
+        <v>1.64</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>1</v>
+      </c>
+      <c r="AT22">
+        <v>0.5</v>
+      </c>
+      <c r="AU22">
+        <v>1.96</v>
+      </c>
+      <c r="AV22">
+        <v>1.24</v>
+      </c>
+      <c r="AW22">
+        <v>3.2</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>-1</v>
+      </c>
+      <c r="BG22">
+        <v>-1</v>
+      </c>
+      <c r="BH22">
+        <v>-1</v>
+      </c>
+      <c r="BI22">
+        <v>-1</v>
+      </c>
+      <c r="BJ22">
+        <v>-1</v>
+      </c>
+      <c r="BK22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>5672618</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45011.70833333334</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>82</v>
+      </c>
+      <c r="P23" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q23">
+        <v>-1</v>
+      </c>
+      <c r="R23">
+        <v>-1</v>
+      </c>
+      <c r="S23">
+        <v>-1</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>1</v>
+      </c>
+      <c r="AR23">
+        <v>1</v>
+      </c>
+      <c r="AS23">
+        <v>0.5</v>
+      </c>
+      <c r="AT23">
+        <v>2</v>
+      </c>
+      <c r="AU23">
+        <v>1.56</v>
+      </c>
+      <c r="AV23">
+        <v>1.13</v>
+      </c>
+      <c r="AW23">
+        <v>2.69</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>-1</v>
+      </c>
+      <c r="BG23">
+        <v>-1</v>
+      </c>
+      <c r="BH23">
+        <v>-1</v>
+      </c>
+      <c r="BI23">
+        <v>-1</v>
+      </c>
+      <c r="BJ23">
+        <v>-1</v>
+      </c>
+      <c r="BK23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>5672666</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45011.70833333334</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>92</v>
+      </c>
+      <c r="P24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>8</v>
+      </c>
+      <c r="T24">
+        <v>3.25</v>
+      </c>
+      <c r="U24">
+        <v>1.91</v>
+      </c>
+      <c r="V24">
+        <v>3.6</v>
+      </c>
+      <c r="W24">
+        <v>1.55</v>
+      </c>
+      <c r="X24">
+        <v>2.3</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>2.4</v>
+      </c>
+      <c r="AD24">
+        <v>2.9</v>
+      </c>
+      <c r="AE24">
+        <v>2.8</v>
+      </c>
+      <c r="AF24">
+        <v>1.05</v>
+      </c>
+      <c r="AG24">
+        <v>6.75</v>
+      </c>
+      <c r="AH24">
+        <v>1.47</v>
+      </c>
+      <c r="AI24">
+        <v>2.42</v>
+      </c>
+      <c r="AJ24">
+        <v>2.5</v>
+      </c>
+      <c r="AK24">
+        <v>1.5</v>
+      </c>
+      <c r="AL24">
+        <v>2.05</v>
+      </c>
+      <c r="AM24">
+        <v>1.62</v>
+      </c>
+      <c r="AN24">
+        <v>1.3</v>
+      </c>
+      <c r="AO24">
+        <v>1.28</v>
+      </c>
+      <c r="AP24">
+        <v>1.42</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>3</v>
+      </c>
+      <c r="AS24">
+        <v>1.5</v>
+      </c>
+      <c r="AT24">
+        <v>1.5</v>
+      </c>
+      <c r="AU24">
+        <v>1.22</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>1.22</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>5</v>
+      </c>
+      <c r="BG24">
+        <v>4</v>
+      </c>
+      <c r="BH24">
+        <v>2</v>
+      </c>
+      <c r="BI24">
+        <v>3</v>
+      </c>
+      <c r="BJ24">
+        <v>7</v>
+      </c>
+      <c r="BK24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>5672668</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45011.70833333334</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>93</v>
+      </c>
+      <c r="P25" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
+      </c>
+      <c r="S25">
+        <v>9</v>
+      </c>
+      <c r="T25">
+        <v>3.5</v>
+      </c>
+      <c r="U25">
+        <v>1.91</v>
+      </c>
+      <c r="V25">
+        <v>3.4</v>
+      </c>
+      <c r="W25">
+        <v>1.53</v>
+      </c>
+      <c r="X25">
+        <v>2.34</v>
+      </c>
+      <c r="Y25">
+        <v>3.48</v>
+      </c>
+      <c r="Z25">
+        <v>1.26</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>2.55</v>
+      </c>
+      <c r="AD25">
+        <v>2.9</v>
+      </c>
+      <c r="AE25">
+        <v>2.45</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>1.47</v>
+      </c>
+      <c r="AI25">
+        <v>2.42</v>
+      </c>
+      <c r="AJ25">
+        <v>2.48</v>
+      </c>
+      <c r="AK25">
+        <v>1.48</v>
+      </c>
+      <c r="AL25">
+        <v>2.04</v>
+      </c>
+      <c r="AM25">
+        <v>1.66</v>
+      </c>
+      <c r="AN25">
+        <v>1.44</v>
+      </c>
+      <c r="AO25">
+        <v>1.33</v>
+      </c>
+      <c r="AP25">
+        <v>1.41</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>2</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>11</v>
+      </c>
+      <c r="BG25">
+        <v>8</v>
+      </c>
+      <c r="BH25">
+        <v>5</v>
+      </c>
+      <c r="BI25">
+        <v>7</v>
+      </c>
+      <c r="BJ25">
+        <v>16</v>
+      </c>
+      <c r="BK25">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Segunda División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK25"/>
+  <dimension ref="A1:BK33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>0.5</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT7" t="n">
         <v>2</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -5624,6 +5624,1630 @@
       </c>
       <c r="BK25" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5672624</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Venezuela Segunda División</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45017.625</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Nueva Esparta</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Fundación AIFI</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>['51', '74', '90+7']</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>6</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5672673</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Venezuela Segunda División</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45018.66666666666</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Atlético El Vigía</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Héroes de Falcón</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>6</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5672623</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Venezuela Segunda División</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45018.66666666666</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Petare</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Dynamo Puerto La Cruz</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5672671</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Venezuela Segunda División</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45018.6875</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Titanes</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Ureña</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>7</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6</v>
+      </c>
+      <c r="S29" t="n">
+        <v>13</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5672622</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Venezuela Segunda División</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45018.6875</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Atlético La Cruz</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Academia Anzoátegui</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>['35', '87']</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>8</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>13</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V30" t="n">
+        <v>4</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5672672</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Venezuela Segunda División</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45018.6875</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Fundación Lara Deportiva</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Yaracuyanos</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>['27', '60', '82', '88']</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>8</v>
+      </c>
+      <c r="S31" t="n">
+        <v>9</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5672625</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Venezuela Segunda División</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45018.70833333334</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Marítimo</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Bolívar</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5672670</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Venezuela Segunda División</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45018.70833333334</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Trujillanos</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Real Frontera</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Segunda División_2023.xlsx
@@ -5834,7 +5834,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>5672673</v>
+        <v>5672623</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -5854,12 +5854,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Atlético El Vigía</t>
+          <t>Petare</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Héroes de Falcón</t>
+          <t>Dynamo Puerto La Cruz</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -5872,164 +5872,164 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['-1']</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['-1']</t>
         </is>
       </c>
       <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="n">
         <v>2</v>
       </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>6</v>
-      </c>
-      <c r="T27" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V27" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X27" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>5</v>
-      </c>
       <c r="BG27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BH27" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI27" t="n">
         <v>7</v>
-      </c>
-      <c r="BI27" t="n">
-        <v>15</v>
       </c>
       <c r="BJ27" t="n">
         <v>12</v>
       </c>
       <c r="BK27" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -6037,7 +6037,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>5672623</v>
+        <v>5672673</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -6057,12 +6057,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Petare</t>
+          <t>Atlético El Vigía</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Dynamo Puerto La Cruz</t>
+          <t>Héroes de Falcón</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -6075,164 +6075,164 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
         <v>2</v>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>['-1']</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>['-1']</t>
-        </is>
-      </c>
-      <c r="Q28" t="n">
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>6</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="n">
         <v>5</v>
       </c>
-      <c r="R28" t="n">
+      <c r="BG28" t="n">
         <v>5</v>
       </c>
-      <c r="S28" t="n">
-        <v>10</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V28" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG28" t="n">
-        <v>8</v>
-      </c>
       <c r="BH28" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BI28" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BJ28" t="n">
         <v>12</v>
       </c>
       <c r="BK28" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
@@ -6849,7 +6849,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>5672625</v>
+        <v>5672670</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -6869,12 +6869,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Marítimo</t>
+          <t>Trujillanos</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Bolívar</t>
+          <t>Real Frontera</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -6984,25 +6984,25 @@
         <v>0</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT32" t="n">
         <v>0.5</v>
       </c>
       <c r="AU32" t="n">
-        <v>1.06</v>
+        <v>0.92</v>
       </c>
       <c r="AV32" t="n">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="AW32" t="n">
-        <v>1.87</v>
+        <v>0.92</v>
       </c>
       <c r="AX32" t="n">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>5672670</v>
+        <v>5672625</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -7072,12 +7072,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Trujillanos</t>
+          <t>Marítimo</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Real Frontera</t>
+          <t>Bolívar</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -7187,25 +7187,25 @@
         <v>0</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR33" t="n">
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT33" t="n">
         <v>0.5</v>
       </c>
       <c r="AU33" t="n">
-        <v>0.92</v>
+        <v>1.06</v>
       </c>
       <c r="AV33" t="n">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AW33" t="n">
-        <v>0.92</v>
+        <v>1.87</v>
       </c>
       <c r="AX33" t="n">
         <v>0</v>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Segunda División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK33"/>
+  <dimension ref="A1:BK34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT13" t="n">
         <v>1.5</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT18" t="n">
         <v>1</v>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU22" t="n">
         <v>1.96</v>
@@ -5834,7 +5834,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>5672623</v>
+        <v>5672673</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -5854,12 +5854,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Petare</t>
+          <t>Atlético El Vigía</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Dynamo Puerto La Cruz</t>
+          <t>Héroes de Falcón</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -5872,164 +5872,164 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
         <v>2</v>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>['-1']</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>['-1']</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>6</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="n">
         <v>5</v>
       </c>
-      <c r="R27" t="n">
+      <c r="BG27" t="n">
         <v>5</v>
       </c>
-      <c r="S27" t="n">
-        <v>10</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V27" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG27" t="n">
-        <v>8</v>
-      </c>
       <c r="BH27" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BI27" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BJ27" t="n">
         <v>12</v>
       </c>
       <c r="BK27" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -6037,7 +6037,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>5672673</v>
+        <v>5672623</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -6057,12 +6057,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Atlético El Vigía</t>
+          <t>Petare</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Héroes de Falcón</t>
+          <t>Dynamo Puerto La Cruz</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -6075,164 +6075,164 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['-1']</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['-1']</t>
         </is>
       </c>
       <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="n">
         <v>2</v>
       </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>6</v>
-      </c>
-      <c r="T28" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V28" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X28" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>5</v>
-      </c>
       <c r="BG28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BH28" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI28" t="n">
         <v>7</v>
-      </c>
-      <c r="BI28" t="n">
-        <v>15</v>
       </c>
       <c r="BJ28" t="n">
         <v>12</v>
       </c>
       <c r="BK28" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -6849,7 +6849,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>5672670</v>
+        <v>5672625</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -6869,12 +6869,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Trujillanos</t>
+          <t>Marítimo</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Real Frontera</t>
+          <t>Bolívar</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -6984,25 +6984,25 @@
         <v>0</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT32" t="n">
         <v>0.5</v>
       </c>
       <c r="AU32" t="n">
-        <v>0.92</v>
+        <v>1.06</v>
       </c>
       <c r="AV32" t="n">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AW32" t="n">
-        <v>0.92</v>
+        <v>1.87</v>
       </c>
       <c r="AX32" t="n">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>5672625</v>
+        <v>5672670</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -7072,12 +7072,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Marítimo</t>
+          <t>Trujillanos</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Bolívar</t>
+          <t>Real Frontera</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -7187,25 +7187,25 @@
         <v>0</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR33" t="n">
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT33" t="n">
         <v>0.5</v>
       </c>
       <c r="AU33" t="n">
-        <v>1.06</v>
+        <v>0.92</v>
       </c>
       <c r="AV33" t="n">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="AW33" t="n">
-        <v>1.87</v>
+        <v>0.92</v>
       </c>
       <c r="AX33" t="n">
         <v>0</v>
@@ -7248,6 +7248,209 @@
       </c>
       <c r="BK33" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5672629</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Venezuela Segunda División</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45023.83333333334</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Fundación AIFI</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Atlético La Cruz</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>6</v>
+      </c>
+      <c r="R34" t="n">
+        <v>8</v>
+      </c>
+      <c r="S34" t="n">
+        <v>14</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Segunda División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK34"/>
+  <dimension ref="A1:BK41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT2" t="n">
         <v>0.33</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT5" t="n">
         <v>2</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT7" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" t="n">
         <v>1.5</v>
@@ -3136,7 +3136,7 @@
         <v>2.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>0.5</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU21" t="n">
         <v>0.77</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT23" t="n">
         <v>2</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
         <v>1.5</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
         <v>0.5</v>
@@ -5978,7 +5978,7 @@
         <v>2</v>
       </c>
       <c r="AT27" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT31" t="n">
         <v>2</v>
@@ -6993,7 +6993,7 @@
         <v>0.5</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU32" t="n">
         <v>1.06</v>
@@ -7451,6 +7451,1427 @@
       </c>
       <c r="BK34" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5672628</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Venezuela Segunda División</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45024.66666666666</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Nueva Esparta</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Petare</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>6</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5672677</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Venezuela Segunda División</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45024.6875</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Yaracuyanos</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Trujillanos</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>9</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V36" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5672626</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Venezuela Segunda División</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45024.70833333334</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Academia Anzoátegui</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Bolívar</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5672676</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Venezuela Segunda División</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45025.6875</v>
+      </c>
+      <c r="F38" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Fundación Lara Deportiva</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Titanes</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>4</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>['18', '44', '75', '81']</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5672627</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Venezuela Segunda División</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45025.6875</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Dynamo Puerto La Cruz</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Marítimo</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5672674</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Venezuela Segunda División</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45025.70833333334</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Real Frontera</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Héroes de Falcón</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['19', '52', '74']</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>9</v>
+      </c>
+      <c r="S40" t="n">
+        <v>9</v>
+      </c>
+      <c r="T40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V40" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5672675</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Venezuela Segunda División</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45025.70833333334</v>
+      </c>
+      <c r="F41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Ureña</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Atlético El Vigía</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>3</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4</v>
+      </c>
+      <c r="L41" t="n">
+        <v>4</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>5</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>['32', '35', '42', '55']</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
